--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365982.7428334088</v>
+        <v>457896.9318625613</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9321424.560661647</v>
+        <v>8666268.959347747</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8366664.17278847</v>
+        <v>8612872.176815499</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>165.1725371760942</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663195</v>
+        <v>129.3420634549346</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="F3" t="n">
-        <v>17.72747161145545</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>38.34834368612516</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>43.07008646612813</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.1725371760942</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U6" t="n">
-        <v>40.58439354511456</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F8" t="n">
-        <v>150.1450882057766</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>88.09081815943109</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.33694841515122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>187.5255871663202</v>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>34.10833718734101</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>195.821882314949</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>201.6086852141651</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>47.36165258445849</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13.56275626089594</v>
       </c>
       <c r="G13" t="n">
-        <v>27.5431303690147</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2933991810722</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>104.9382845759052</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.85573157916966</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.7694211601826</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>194.7445699524669</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1610,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>299.4782125119776</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>213.4632246120116</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1695,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3416504137343145</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.842886239454</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3113116019144</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2933991810722</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>104.9382845759052</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.1675788123503</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>186.6141597285341</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>36.34690181272143</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H18" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1986,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034782</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>5.546312764597269</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>87.62154955555337</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>35.20668280448514</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>168.1158122680972</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>168.0467181087597</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>164.2282989658135</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>91.47159103503462</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>14.59946548753628</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.0171131637573</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>134.0513867710685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>148.313913686628</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>328.0423659626483</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>259.7459865368304</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>61.68477698654688</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>150.3013276789174</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>196.7489171508916</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414544</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>54.4580304704437</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>39.35604302001447</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>168.5177247035051</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>8.750814577928375</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>132.6182532445038</v>
       </c>
       <c r="I37" t="n">
-        <v>5.647680961031769</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>33.78298043858156</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>188.2196394312116</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>115.0138334144183</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.7029035467942</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>265.6562287330396</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>3.559425554150887</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>53.54735467376845</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>242.9377270207144</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247818</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>25.20972493040568</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>87.62154955555337</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897899</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C2" t="n">
-        <v>204.4218319897899</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D2" t="n">
-        <v>204.4218319897899</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897899</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897899</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678483</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058916</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079178</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644746</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123817</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985568</v>
+        <v>523.2361246735305</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020249</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652779</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652779</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652779</v>
+        <v>142.396238631475</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652779</v>
+        <v>142.396238631475</v>
       </c>
       <c r="W2" t="n">
-        <v>583.2614020227585</v>
+        <v>142.396238631475</v>
       </c>
       <c r="X2" t="n">
-        <v>393.8416170062742</v>
+        <v>142.396238631475</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.4218319897899</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.842993615825</v>
+        <v>548.6487836617788</v>
       </c>
       <c r="C3" t="n">
-        <v>181.842993615825</v>
+        <v>400.319368420659</v>
       </c>
       <c r="D3" t="n">
-        <v>32.90858395457369</v>
+        <v>400.319368420659</v>
       </c>
       <c r="E3" t="n">
-        <v>32.90858395457369</v>
+        <v>251.9899531795391</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330556</v>
+        <v>251.9899531795391</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330556</v>
+        <v>114.3717018502035</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>431.9158668530686</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>550.1875401335673</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017045</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652779</v>
+        <v>548.6487836617788</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652779</v>
+        <v>548.6487836617788</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487936</v>
+        <v>548.6487836617788</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323093</v>
+        <v>548.6487836617788</v>
       </c>
       <c r="X3" t="n">
-        <v>181.842993615825</v>
+        <v>548.6487836617788</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.842993615825</v>
+        <v>548.6487836617788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330556</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330556</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330556</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330556</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330556</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330556</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330556</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230161</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170693</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396299</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.00204697330557</v>
+        <v>203.5822427727904</v>
       </c>
       <c r="C5" t="n">
-        <v>15.00204697330557</v>
+        <v>203.5822427727904</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330557</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330557</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330557</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330557</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>53.10181779183023</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066259</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123825</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985575</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020256</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652786</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652786</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652786</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652786</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="U5" t="n">
-        <v>560.682563648794</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="V5" t="n">
-        <v>371.2627786323095</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="W5" t="n">
-        <v>371.2627786323095</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="X5" t="n">
-        <v>181.842993615825</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.00204697330557</v>
+        <v>351.9116580139103</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>709.1080117510214</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C6" t="n">
-        <v>709.1080117510214</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D6" t="n">
-        <v>560.1736020897702</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E6" t="n">
-        <v>400.9361470843146</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F6" t="n">
-        <v>254.4015891111996</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G6" t="n">
-        <v>116.8624079336487</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024202</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772646</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M6" t="n">
-        <v>338.769091114024</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546593</v>
+        <v>392.911462660324</v>
       </c>
       <c r="O6" t="n">
-        <v>649.210157847634</v>
+        <v>511.1831359408227</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017052</v>
+        <v>586.7735145200479</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652786</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652786</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652786</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652786</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="U6" t="n">
-        <v>709.1080117510214</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="V6" t="n">
-        <v>709.1080117510214</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="W6" t="n">
-        <v>709.1080117510214</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X6" t="n">
-        <v>709.1080117510214</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y6" t="n">
-        <v>709.1080117510214</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330557</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230162</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170694</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N7" t="n">
-        <v>66.418473293963</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828944</v>
+        <v>33.37805236665703</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>672.2420264262266</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="C8" t="n">
-        <v>672.2420264262266</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="D8" t="n">
-        <v>672.2420264262266</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="E8" t="n">
-        <v>672.2420264262266</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="F8" t="n">
-        <v>520.5803211678664</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G8" t="n">
-        <v>331.1605361513813</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I8" t="n">
         <v>15.00204697330562</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M8" t="n">
         <v>347.121819064476</v>
@@ -4841,13 +4843,13 @@
         <v>672.2420264262266</v>
       </c>
       <c r="W8" t="n">
-        <v>672.2420264262266</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="X8" t="n">
-        <v>672.2420264262266</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="Y8" t="n">
-        <v>672.2420264262266</v>
+        <v>393.8416170062758</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>348.6925312598881</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="C9" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D9" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E9" t="n">
         <v>15.00204697330562</v>
@@ -4905,28 +4907,28 @@
         <v>750.1023486652808</v>
       </c>
       <c r="R9" t="n">
-        <v>706.3276532964412</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S9" t="n">
-        <v>706.3276532964412</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T9" t="n">
-        <v>516.9078682799561</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U9" t="n">
-        <v>516.9078682799561</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V9" t="n">
-        <v>516.9078682799561</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="W9" t="n">
-        <v>516.9078682799561</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="X9" t="n">
-        <v>516.9078682799561</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="Y9" t="n">
-        <v>516.9078682799561</v>
+        <v>181.8429936158256</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H10" t="n">
         <v>15.00204697330562</v>
@@ -4978,34 +4980,34 @@
         <v>67.74542702829027</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829027</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1772.792895410228</v>
+        <v>2209.232076102166</v>
       </c>
       <c r="C11" t="n">
-        <v>1403.830378469817</v>
+        <v>1840.269559161754</v>
       </c>
       <c r="D11" t="n">
-        <v>1045.564679863066</v>
+        <v>1482.003860555003</v>
       </c>
       <c r="E11" t="n">
-        <v>659.7764272648219</v>
+        <v>1096.215607956759</v>
       </c>
       <c r="F11" t="n">
-        <v>248.7905224752143</v>
+        <v>685.2297031671517</v>
       </c>
       <c r="G11" t="n">
-        <v>50.99064134900323</v>
+        <v>270.1572530121481</v>
       </c>
       <c r="H11" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>186.3894711936273</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>440.055736850883</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>791.6529319622239</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2045.692679619748</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2549.532067450162</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X11" t="n">
-        <v>2549.532067450162</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y11" t="n">
-        <v>2159.39273547435</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>680.150093269952</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>505.697063988825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>356.7626543275737</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>197.5251993221183</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>50.99064134900323</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>50.99064134900323</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>50.99064134900323</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>296.6386113086636</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>590.134131986624</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>951.9864295006901</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.824525520585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>1914.691514651696</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2029.297224930789</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2029.297224930789</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2029.297224930789</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>1981.457171815174</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>1753.366694220451</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1518.214585988708</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1263.977229260507</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1056.125729054974</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>848.36543029002</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>333.5914636984901</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="C13" t="n">
-        <v>333.5914636984901</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="D13" t="n">
-        <v>333.5914636984901</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="E13" t="n">
-        <v>333.5914636984901</v>
+        <v>491.4575708201461</v>
       </c>
       <c r="F13" t="n">
-        <v>333.5914636984901</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>305.7701198914046</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9889085973923</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>50.99064134900323</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>230.1506500142257</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>353.276724040951</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>481.3326611335758</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>579.2999565750212</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>644.0659310639641</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>633.1005456304594</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>530.3031505191638</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5914636984901</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T13" t="n">
-        <v>333.5914636984901</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U13" t="n">
-        <v>333.5914636984901</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V13" t="n">
-        <v>333.5914636984901</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W13" t="n">
-        <v>333.5914636984901</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X13" t="n">
-        <v>333.5914636984901</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="Y13" t="n">
-        <v>333.5914636984901</v>
+        <v>639.3706644025392</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>830.9390630790225</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C14" t="n">
-        <v>461.9765461386108</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D14" t="n">
-        <v>461.9765461386108</v>
+        <v>1505.370017933393</v>
       </c>
       <c r="E14" t="n">
-        <v>461.9765461386108</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F14" t="n">
-        <v>50.99064134900323</v>
+        <v>708.595860545541</v>
       </c>
       <c r="G14" t="n">
-        <v>50.99064134900323</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>186.3894711936273</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>440.055736850883</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>791.6529319622239</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2045.692679619748</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2549.532067450162</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>2549.532067450162</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2549.532067450162</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2333.91264865015</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W14" t="n">
-        <v>1981.143993380036</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X14" t="n">
-        <v>1607.678235118956</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y14" t="n">
-        <v>1217.538903143144</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>533.615535296837</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>359.16250601571</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>210.2280963544587</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>50.99064134900323</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>50.99064134900323</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>50.99064134900323</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>50.99064134900323</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>296.6386113086636</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>590.134131986624</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>951.9864295006901</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.824525520585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>1914.691514651696</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2029.297224930789</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2029.297224930789</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2028.952123502774</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>1834.922613842059</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>1606.832136247336</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1371.680028015593</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1117.442671287392</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>909.5911710818589</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>701.830872316905</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>621.6744373141153</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C16" t="n">
-        <v>621.6744373141153</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D16" t="n">
-        <v>621.6744373141153</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>473.7613437317221</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>473.7613437317221</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>305.7701198914046</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>156.9889085973923</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>50.99064134900323</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>230.1506500142257</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>353.276724040951</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>481.3326611335758</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>579.2999565750212</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>644.0659310639641</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>644.0659310639641</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>621.6744373141153</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>621.6744373141153</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T16" t="n">
-        <v>621.6744373141153</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U16" t="n">
-        <v>621.6744373141153</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V16" t="n">
-        <v>621.6744373141153</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W16" t="n">
-        <v>621.6744373141153</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X16" t="n">
-        <v>621.6744373141153</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y16" t="n">
-        <v>621.6744373141153</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2175.400891308158</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C17" t="n">
-        <v>1806.438374367746</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5513,10 +5515,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5525,13 +5527,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.140063348092</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.00073137228</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5595,49 +5597,49 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>218.3316393401815</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>218.3316393401815</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>218.3316393401815</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>218.3316393401815</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>218.3316393401815</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>218.3316393401815</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>72.11445255803926</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>729.2011216450119</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>507.4345062145379</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U19" t="n">
-        <v>218.3316393401815</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V19" t="n">
-        <v>218.3316393401815</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W19" t="n">
-        <v>218.3316393401815</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X19" t="n">
-        <v>218.3316393401815</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.3316393401815</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3155.791869823214</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V20" t="n">
-        <v>3155.791869823214</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>479.6639240396553</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C22" t="n">
-        <v>310.7277411117484</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D22" t="n">
-        <v>310.7277411117484</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E22" t="n">
-        <v>310.7277411117484</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F22" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
@@ -5932,28 +5934,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T22" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U22" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V22" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W22" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="X22" t="n">
-        <v>661.312388869895</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="Y22" t="n">
-        <v>661.312388869895</v>
+        <v>563.3139509724723</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1611.504630229389</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="C23" t="n">
-        <v>1242.542113288977</v>
+        <v>1693.368256178216</v>
       </c>
       <c r="D23" t="n">
-        <v>884.2764146822267</v>
+        <v>1335.102557571465</v>
       </c>
       <c r="E23" t="n">
-        <v>498.4881620839824</v>
+        <v>949.3143049732209</v>
       </c>
       <c r="F23" t="n">
-        <v>498.4881620839824</v>
+        <v>538.3284001836134</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>123.2559500286099</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883007</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539437</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269322</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X23" t="n">
-        <v>2388.243802269322</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y23" t="n">
-        <v>1998.104470293511</v>
+        <v>2062.330773118627</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>794.6070935315613</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C25" t="n">
-        <v>625.6709106036544</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D25" t="n">
-        <v>625.6709106036544</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6190,7 +6192,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.8870058181849</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2303.170539913434</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C26" t="n">
-        <v>1934.208022973022</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
         <v>66.5121164321834</v>
@@ -6227,13 +6229,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6251,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>3215.315153136265</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>3079.909711953368</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>2689.770379977556</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.837793613838</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C28" t="n">
-        <v>163.837793613838</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D28" t="n">
-        <v>163.837793613838</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6406,28 +6408,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>681.2445145488159</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>681.2445145488159</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>681.2445145488159</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>681.2445145488159</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>391.8273445118554</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>163.837793613838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>163.837793613838</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2303.170539913434</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C29" t="n">
-        <v>1934.208022973022</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>1194.642199034831</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>808.8539464365872</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>397.8680416469796</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6494,19 +6496,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W29" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X29" t="n">
-        <v>2952.140063348092</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y29" t="n">
-        <v>2689.770379977556</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K31" t="n">
         <v>176.6457242372933</v>
@@ -6628,43 +6630,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T31" t="n">
-        <v>699.120390387711</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U31" t="n">
-        <v>636.8125348457445</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="V31" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W31" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X31" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y31" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.569348694472</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1491.569348694472</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1133.303650087721</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6734,16 +6736,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.774278995485</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.308520734405</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.169188758593</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3104.203777970835</v>
+        <v>2695.175226737383</v>
       </c>
       <c r="C34" t="n">
-        <v>2935.267595042928</v>
+        <v>2526.239043809476</v>
       </c>
       <c r="D34" t="n">
-        <v>2785.150955630592</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E34" t="n">
-        <v>2785.150955630592</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F34" t="n">
-        <v>2785.150955630592</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G34" t="n">
-        <v>2617.448119005311</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H34" t="n">
         <v>2471.230932223169</v>
@@ -6898,10 +6900,10 @@
         <v>3325.60582160917</v>
       </c>
       <c r="X34" t="n">
-        <v>3325.60582160917</v>
+        <v>3097.616270711153</v>
       </c>
       <c r="Y34" t="n">
-        <v>3285.852242801075</v>
+        <v>2876.823691567623</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2217.803762225667</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C35" t="n">
-        <v>1848.841245285255</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D35" t="n">
-        <v>1490.575546678504</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.78729408026</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>693.8013892906527</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>278.7289391356491</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6968,19 +6970,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.5429342656</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W35" t="n">
-        <v>2994.5429342656</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X35" t="n">
-        <v>2994.5429342656</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y35" t="n">
-        <v>2604.403602289789</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3235.775364366699</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="C37" t="n">
-        <v>3235.775364366699</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="D37" t="n">
-        <v>3085.658724954363</v>
+        <v>516.0858781999624</v>
       </c>
       <c r="E37" t="n">
-        <v>2937.74563137197</v>
+        <v>368.1727846175693</v>
       </c>
       <c r="F37" t="n">
-        <v>2790.85568387406</v>
+        <v>368.1727846175693</v>
       </c>
       <c r="G37" t="n">
-        <v>2623.152847248778</v>
+        <v>200.4699479922882</v>
       </c>
       <c r="H37" t="n">
-        <v>2476.935660466636</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>3235.775364366699</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>3235.775364366699</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>3235.775364366699</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>3235.775364366699</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W37" t="n">
-        <v>3235.775364366699</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X37" t="n">
-        <v>3235.775364366699</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="Y37" t="n">
-        <v>3235.775364366699</v>
+        <v>666.2025176122982</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1632.511388127729</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C38" t="n">
-        <v>1263.548871187317</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>905.2831725805665</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>519.4949199823222</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7202,22 +7204,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3291.481598943938</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3037.951122217774</v>
       </c>
       <c r="V38" t="n">
-        <v>3135.484973698856</v>
+        <v>2706.888234874203</v>
       </c>
       <c r="W38" t="n">
-        <v>2782.716318428742</v>
+        <v>2354.119579604089</v>
       </c>
       <c r="X38" t="n">
-        <v>2409.250560167662</v>
+        <v>1980.653821343009</v>
       </c>
       <c r="Y38" t="n">
-        <v>2019.11122819185</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2938.196848145806</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C40" t="n">
-        <v>2769.260665217899</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D40" t="n">
-        <v>2619.144025805563</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E40" t="n">
         <v>2471.23093222317</v>
@@ -7330,25 +7332,25 @@
         <v>2471.23093222317</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K40" t="n">
         <v>2581.36454002828</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M40" t="n">
         <v>2904.506865249835</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O40" t="n">
         <v>3213.734051497872</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q40" t="n">
         <v>3325.605821609171</v>
@@ -7363,19 +7365,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U40" t="n">
-        <v>3119.845312976046</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V40" t="n">
-        <v>3119.845312976046</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W40" t="n">
-        <v>3119.845312976046</v>
+        <v>3036.188651572211</v>
       </c>
       <c r="X40" t="n">
-        <v>3119.845312976046</v>
+        <v>2808.199100674194</v>
       </c>
       <c r="Y40" t="n">
-        <v>3119.845312976046</v>
+        <v>2587.406521530664</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1046.558481879034</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C41" t="n">
-        <v>677.595964938622</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>319.3302663318715</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>50.99064134900323</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>50.99064134900323</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>50.99064134900323</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>50.99064134900323</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>264.1710801704545</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>797.702984842379</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>1344.481801901161</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>1847.454272780498</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>2242.228639137677</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>2490.515000893359</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2196.763412180047</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X41" t="n">
-        <v>1823.297653918967</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y41" t="n">
-        <v>1433.158321943155</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>926.0223793979284</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>751.5693501168014</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>602.6349404555501</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>443.3974854500947</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>296.8629274769796</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>160.4998273095977</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>144.6679108396208</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>382.9321098199679</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>749.6302701326333</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2549.532067450161</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2549.387714042676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2419.949827536156</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2227.306827214012</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>1999.238980348427</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1764.086872116685</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1509.849515388483</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1301.99801518295</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1094.237716417996</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>612.3529813504169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>612.3529813504169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>462.2363419380812</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>462.2363419380812</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>462.2363419380812</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>294.5335053128001</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>148.3163185306579</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>901.7701513873776</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U43" t="n">
-        <v>901.7701513873776</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V43" t="n">
-        <v>901.7701513873776</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W43" t="n">
-        <v>612.3529813504169</v>
+        <v>120.600353476394</v>
       </c>
       <c r="X43" t="n">
-        <v>612.3529813504169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y43" t="n">
-        <v>612.3529813504169</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1174.632596684847</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1174.632596684847</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1174.632596684847</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>1174.632596684847</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>763.6466918952395</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>348.574241740236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>50.99064134900323</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>120.4402952345309</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>571.4745084829398</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1105.006413154864</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>1651.785230213647</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2154.757701092984</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>2549.532067450162</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>2549.532067450162</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2304.140423994895</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2304.140423994895</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>1951.371768724781</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>1951.371768724781</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1561.232436748969</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>926.0223793979292</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>751.5693501168022</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>602.6349404555509</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>443.3974854500954</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>296.8629274769804</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>160.4998273095985</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>69.99793294746604</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>144.6679108396206</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>382.932109819968</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>749.6302701326333</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2549.532067450162</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2549.387714042677</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2419.949827536157</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2227.306827214013</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>1999.238980348428</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1764.086872116686</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1509.849515388484</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1301.998015182951</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1094.237716417997</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2031.796197617349</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>1862.860014689442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>1862.860014689442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>1862.860014689442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>1862.860014689442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>1695.157178064161</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>1695.157178064161</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>1695.157178064161</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>1706.9799316016</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>1805.29078586927</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>1961.000629791628</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2128.433111090826</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>2299.741948120673</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>2437.660297338863</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>2536.611300091621</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>2549.532067450162</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>2459.70161020769</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>2459.70161020769</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>2434.237241591118</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U46" t="n">
-        <v>2434.237241591118</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V46" t="n">
-        <v>2434.237241591118</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W46" t="n">
-        <v>2434.237241591118</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X46" t="n">
-        <v>2434.237241591118</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y46" t="n">
-        <v>2213.444662447588</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
   </sheetData>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637386</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>15.26359063142547</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>67.2382049840831</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>104.3348437827356</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>184.0684315413188</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121496</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897341</v>
+        <v>256.895875201119</v>
       </c>
     </row>
     <row r="3">
@@ -22626,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>25.86237789960711</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>10.79895936669232</v>
       </c>
       <c r="F3" t="n">
-        <v>127.3417407819284</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>157.3767752233994</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831058</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599460014</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715801</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22708,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>0.3148989349955578</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22741,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8877205747719</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319743</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>275.3220737408595</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871069</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038153</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121494</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.0654014799593</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="6">
@@ -22866,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409152</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846324</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>21.88218769163137</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U6" t="n">
-        <v>185.2793748649764</v>
+        <v>79.02279728521563</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22951,22 +22953,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>93.20510176849722</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>145.6535030114761</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825422</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402859</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22978,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709393</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515973</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23027,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F8" t="n">
-        <v>256.7309575359348</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637378</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399021</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>261.1501505579819</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121488</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.535961812220989</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.09594721331192</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681015</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23194,7 +23196,7 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>101.2177245773847</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
         <v>125.7072197708666</v>
@@ -23218,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709379</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.6860405515972</v>
+        <v>34.57770336425619</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>215.7363240663639</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.1261226415114</v>
+        <v>92.99907917315539</v>
       </c>
       <c r="I11" t="n">
-        <v>66.11485303372851</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.6915663742737</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>206.704164525825</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23349,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3400163777887</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>92.88584454571125</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.54219944928975</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.2867095848742</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>144.7275619796494</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>131.8582917620353</v>
       </c>
       <c r="G13" t="n">
-        <v>138.7681812328997</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8.242911051707722</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7688271957736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5582063813129</v>
+        <v>111.4435131414759</v>
       </c>
       <c r="H14" t="n">
-        <v>301.1261226415114</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.11485303372851</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.6915663742737</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.704164525825</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>114.2890338581233</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23583,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3400163777887</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>92.88584454571125</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>30.54219944928975</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.2867095848742</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.1273723293064</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23656,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758381</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8.242911051707722</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.85573157916966</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.60184234783235</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>194.7445699524669</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7688271957736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>168.0688818921489</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>349.8910368433321</v>
       </c>
     </row>
     <row r="18">
@@ -23905,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>90.80610764524081</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>319.4763588161978</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24020,19 +24022,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>35.80215787152295</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>57.66293728027748</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>54.35635438628128</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>319.4501346184188</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>280.0082988997842</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,10 +24259,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.81486701817995</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="26">
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>235.6797139074006</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>14.88174980530007</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>41.45511164481388</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>82.87935969080519</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24734,7 +24736,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>126.4919521192232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24844,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>224.527061219066</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>185.1814529213702</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,10 +24976,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>94.15744254776865</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>179.2286103320803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>126.0900396838154</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,19 +25210,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>377.4871240781252</v>
       </c>
     </row>
     <row r="36">
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>12.13676166981702</v>
       </c>
       <c r="I37" t="n">
-        <v>90.70473944880632</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25369,7 +25371,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25444,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>170.1349897010386</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>139.5326190389233</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>64.81814676751895</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25603,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>82.50893465881867</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>116.2741413392222</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>215.9895237220183</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1623007152687</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25919,16 +25921,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>8.057444938187615</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>181.1251564493154</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>194.3392243457635</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337672</v>
+        <v>402256.5418769754</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337675</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337679</v>
+        <v>433263.075833768</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732074.4812007226</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732074.4812007227</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777591.6108183698</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777591.6108183697</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.6800963039</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.6800963041</v>
+        <v>149975.6800963042</v>
       </c>
       <c r="E2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="F2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318747</v>
@@ -26335,25 +26337,25 @@
         <v>296136.8796318746</v>
       </c>
       <c r="J2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="K2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="L2" t="n">
         <v>296136.8796318746</v>
-      </c>
-      <c r="K2" t="n">
-        <v>296136.8796318747</v>
-      </c>
-      <c r="L2" t="n">
-        <v>296136.8796318745</v>
       </c>
       <c r="M2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="N2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="P2" t="n">
         <v>296136.8796318746</v>
-      </c>
-      <c r="O2" t="n">
-        <v>269166.3268217432</v>
-      </c>
-      <c r="P2" t="n">
-        <v>269166.3268217433</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.607507086504484e-10</v>
+        <v>43803.80384074492</v>
       </c>
       <c r="E3" t="n">
-        <v>442006.5628979785</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176272.8472779123</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854444</v>
+        <v>38421.40650613408</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10295.60674904876</v>
       </c>
       <c r="M3" t="n">
-        <v>112106.2709100169</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723337</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723338</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="D4" t="n">
         <v>137.8001180723343</v>
       </c>
       <c r="E4" t="n">
-        <v>449.9968236586044</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>449.9968236586045</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161353</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161354</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>59058.54363117637</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>59058.54363117637</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26506,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>62510.01949817635</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>62510.01949817636</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-498504.8229542269</v>
+        <v>-457239.0977908509</v>
       </c>
       <c r="C6" t="n">
-        <v>92852.07956661814</v>
+        <v>85416.3371842794</v>
       </c>
       <c r="D6" t="n">
-        <v>92852.07956661744</v>
+        <v>49048.27572587331</v>
       </c>
       <c r="E6" t="n">
-        <v>-248104.706014102</v>
+        <v>-405888.7515521923</v>
       </c>
       <c r="F6" t="n">
-        <v>193901.8568838765</v>
+        <v>221245.8920814752</v>
       </c>
       <c r="G6" t="n">
-        <v>44973.04480356295</v>
+        <v>221245.8920814752</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814754</v>
+        <v>221245.8920814751</v>
       </c>
       <c r="I6" t="n">
         <v>221245.8920814752</v>
       </c>
       <c r="J6" t="n">
-        <v>172180.9473529307</v>
+        <v>182824.485575341</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.8920814752</v>
+        <v>221245.892081475</v>
       </c>
       <c r="L6" t="n">
+        <v>210950.2853324264</v>
+      </c>
+      <c r="M6" t="n">
+        <v>60789.45021359777</v>
+      </c>
+      <c r="N6" t="n">
         <v>221245.8920814751</v>
       </c>
-      <c r="M6" t="n">
-        <v>109139.6211714582</v>
-      </c>
-      <c r="N6" t="n">
-        <v>221245.8920814752</v>
-      </c>
       <c r="O6" t="n">
-        <v>206163.3875488251</v>
+        <v>221245.8920814751</v>
       </c>
       <c r="P6" t="n">
-        <v>206163.3875488251</v>
+        <v>221245.8920814751</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129049</v>
       </c>
       <c r="E3" t="n">
-        <v>931.4521195382529</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>931.4521195382529</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663196</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>637.3830168625403</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>36.39307775568409</v>
       </c>
       <c r="E3" t="n">
-        <v>382.982178625348</v>
+        <v>541.3067596803934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158.3245810550457</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>40.67946607761158</v>
       </c>
       <c r="E4" t="n">
-        <v>449.8574296962203</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>194.0184385397524</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663193</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761147</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962205</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>40.67946607761158</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962203</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>194.0184385397524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628864</v>
+        <v>171.5470783449032</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>238.7894450985626</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.744531133822119</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>38.34867947425579</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>317.8123993192354</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>476.3184022139258</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>590.9150969006346</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>657.5069024517437</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>668.1460515357159</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9113700737721</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>538.4682577075384</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.3672364775337</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>235.2174038349539</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>85.32850321197162</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.39168503830633</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2995624907057695</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.003500785421902</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>68.98018055071024</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>323.5214404249043</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>435.0145016768039</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>507.6414051483478</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>521.0771626084799</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>476.6838030999208</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>382.5807771741175</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>37.21414836079715</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.075514130713717</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1318092621988094</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.67966775654439</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.93377332636741</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>50.51219035135313</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>249.7207862775178</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>263.295555691772</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>257.0349758719249</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>237.4134025341108</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>203.1481803006051</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.6492700502762</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>75.52397021698684</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.176762232507848</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09161824126605776</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.744531133822119</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>38.34867947425579</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>317.8123993192359</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>476.3184022139258</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>590.9150969006346</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>657.5069024517437</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>668.1460515357159</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>630.9113700737721</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>538.4682577075384</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.3672364775337</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>235.2174038349539</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>85.32850321197162</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.39168503830633</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2995624907057695</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.003500785421902</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>68.98018055071024</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>323.5214404249043</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>435.0145016768039</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>507.6414051483478</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>521.0771626084799</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>476.6838030999208</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>382.5807771741175</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>37.21414836079715</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.075514130713717</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1318092621988094</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.67966775654439</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.93377332636741</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>50.51219035135313</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>249.7207862775178</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>263.295555691772</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>257.0349758719249</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>237.4134025341108</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>203.1481803006051</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.6492700502762</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>75.52397021698684</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.176762232507848</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09161824126605776</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34129,13 +34131,13 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>181.0459045266863</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>451.1001915573117</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
         <v>769.2673490574995</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34366,10 +34368,10 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2410165859176</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623194</v>
@@ -34387,10 +34389,10 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855619</v>
+        <v>37.57267093057298</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>107.4477330152293</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646066</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061144</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520815</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400438</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7664947925491</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>256.2285511689452</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>355.1486819306473</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>427.160669224471</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>438.7329879391249</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>400.8131586520853</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>307.2352619522689</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.0615466030842</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>19.63186602082178</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.44926113497019</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>185.6800014505453</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>296.4601218969297</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>365.5073712263294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>389.7354505251466</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>334.0875586554764</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>248.6063697597873</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.763343716255</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>66.13359572616739</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>124.3697717441669</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3494314066917</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>98.95686408226803</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>65.42017625145746</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.7664947925495</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>256.2285511689452</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>355.1486819306473</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>427.160669224471</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>438.7329879391249</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>400.8131586520853</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>307.2352619522689</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.0615466030842</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>19.63186602082178</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.44926113497019</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>185.6800014505453</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>296.4601218969297</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>365.5073712263294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>389.7354505251466</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>334.0875586554764</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>248.6063697597873</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.763343716255</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>66.13359572616739</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>124.3697717441669</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>129.3494314066917</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>98.95686408226803</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>65.42017625145746</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>215.3337765873245</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>70.15116554093709</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38035,10 +38037,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
